--- a/biology/Zoologie/Boiga_irregularis/Boiga_irregularis.xlsx
+++ b/biology/Zoologie/Boiga_irregularis/Boiga_irregularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Serpent brun arboricole
-Boiga irregularis est une espèce de serpents de la famille des Colubridae[1]. Il est parfois appelé Serpent brun arboricole.
+Boiga irregularis est une espèce de serpents de la famille des Colubridae. Il est parfois appelé Serpent brun arboricole.
 Cette espèce est connue pour être devenue une espèce exotique envahissante sur l'île de Guam, où elle est responsable de la disparition de nombreuses espèces d'oiseaux, comme le Râle de Guam qui a disparu à l'état sauvage, et constitue une menace pour d'autres, tels le Zostérops doré et le Stourne de Micronésie.
 C'est une couleuvre venimeuse mais elle est considérée comme non dangereuse pour l'homme même si sa morsure peut être douloureuse (aucun cas de décès n'a été enregistré).
 </t>
@@ -514,10 +526,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa distribution naturelle est vaste, elle se rencontre en Indonésie (sur les îles de Célèbes et Togian), en Nouvelle-Guinée, dans le nord et l'est de Australie, aux îles Salomon et dans les îles Carolines.
-Elle a été introduite accidentellement par l'homme à la fin des années 1940 ou au début des années 1950 sur l'île de Guam[1] où elle est devenue écologiquement très envahissante[2], mais aussi sur Saipan dans les Mariannes du Nord et quelques îles d'Indonésie[3].
+Elle a été introduite accidentellement par l'homme à la fin des années 1940 ou au début des années 1950 sur l'île de Guam où elle est devenue écologiquement très envahissante, mais aussi sur Saipan dans les Mariannes du Nord et quelques îles d'Indonésie.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boiga irregularis mesure entre 120 et 200 cm ; toutefois, sur l'île de Guam, en l'absence de prédateurs, sa taille peut atteindre 300 cm. Sa tête est bien séparée du cou, ses yeux sont grands et les pupilles verticales. Son corps varie du brun au rougeâtre avec des bandes plus foncées, ou rouge avec des bandes blanches.
 </t>
@@ -577,9 +593,11 @@
           <t>Locomotion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un nouveau moyen de locomotion a été découvert chez cette espèce et rendu public en 2021. Boiga irregularis utilise une technique inconnue jusqu'alors chez les serpents, appelée « lasso », pour grimper aux arbres et atteindre les nids d’oiseaux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nouveau moyen de locomotion a été découvert chez cette espèce et rendu public en 2021. Boiga irregularis utilise une technique inconnue jusqu'alors chez les serpents, appelée « lasso », pour grimper aux arbres et atteindre les nids d’oiseaux.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga irregularis se nourrit de lézards, de petits oiseaux, de chauve-souris et de rongeurs[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga irregularis se nourrit de lézards, de petits oiseaux, de chauve-souris et de rongeurs.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond de 4 à 12 œufs oblongs avec une coquille tannée, de 42 à 47 mm et de 18 à 22 mm de large. Les femelles peuvent produire jusqu'à deux pontes par an selon les variations saisonnières du climat et de l'abondance de proies. La femelle dépose les œufs dans des endroits creux, les crevasses de roche, et d'autres emplacements où ceux-ci sont protégés contre la chaleur.
 </t>
@@ -670,7 +692,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Boiga irregularis est un serpent venimeux mais considéré comme peu ou pas dangereux pour l'homme. C'est un serpent nocturne qui peut mordre s'il se sent menacé. Comme tous les Boiga, il possède deux petits crocs cannelés et non creux dans le fond de la gueule, il lui est donc difficile d'injecter son venin à l'homme lors d'une morsure défensive, et les quantités injectées sont généralement faibles. Cette architecture est conçue pour tuer de petites proies et non pour la défense contre ses prédateurs. Son venin est faiblement neurotoxique et probablement cytotoxique.
 </t>
@@ -701,9 +725,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Boiga irregularis (Bechstein, 1802)[6]. L'espèce a été initialement classée dans le genre Coluber sous le protonyme Coluber irregularis Bechstein, 1802[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Boiga irregularis (Bechstein, 1802). L'espèce a été initialement classée dans le genre Coluber sous le protonyme Coluber irregularis Bechstein, 1802.
 </t>
         </is>
       </c>
@@ -733,6 +759,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
